--- a/www/IndicatorsPerCountry/Macedonia_CopperProduction_TerritorialRef_1993_2012_CCode_807.xlsx
+++ b/www/IndicatorsPerCountry/Macedonia_CopperProduction_TerritorialRef_1993_2012_CCode_807.xlsx
@@ -327,13 +327,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Macedonia_CopperProduction_TerritorialRef_1993_2012_CCode_807.xlsx
+++ b/www/IndicatorsPerCountry/Macedonia_CopperProduction_TerritorialRef_1993_2012_CCode_807.xlsx
@@ -42,205 +42,205 @@
     <t/>
   </si>
   <si>
-    <t>0.172899728997</t>
-  </si>
-  <si>
-    <t>0.361517615176</t>
-  </si>
-  <si>
-    <t>0.385094850949</t>
-  </si>
-  <si>
-    <t>0.550135501355</t>
-  </si>
-  <si>
-    <t>0.581571815718</t>
-  </si>
-  <si>
-    <t>0.50298102981</t>
-  </si>
-  <si>
-    <t>0.345799457995</t>
-  </si>
-  <si>
-    <t>0.251490514905</t>
-  </si>
-  <si>
-    <t>0.392953929539</t>
-  </si>
-  <si>
-    <t>0.880216802168</t>
-  </si>
-  <si>
-    <t>0.471544715447</t>
-  </si>
-  <si>
-    <t>0.125745257453</t>
-  </si>
-  <si>
-    <t>0.188617886179</t>
-  </si>
-  <si>
-    <t>0.314363143631</t>
-  </si>
-  <si>
-    <t>0.408672086721</t>
-  </si>
-  <si>
-    <t>0.534417344173</t>
-  </si>
-  <si>
-    <t>0.636585365854</t>
-  </si>
-  <si>
-    <t>0.573712737127</t>
-  </si>
-  <si>
-    <t>0.762330623306</t>
-  </si>
-  <si>
-    <t>1.01382113821</t>
-  </si>
-  <si>
-    <t>1.18672086721</t>
-  </si>
-  <si>
-    <t>1.62682926829</t>
-  </si>
-  <si>
-    <t>1.92547425474</t>
-  </si>
-  <si>
-    <t>1.88617886179</t>
-  </si>
-  <si>
-    <t>2.35772357724</t>
-  </si>
-  <si>
-    <t>3.14363143631</t>
-  </si>
-  <si>
-    <t>3.45799457995</t>
-  </si>
-  <si>
-    <t>3.06504065041</t>
-  </si>
-  <si>
-    <t>3.30081300813</t>
-  </si>
-  <si>
-    <t>3.46585365854</t>
-  </si>
-  <si>
-    <t>0.628726287263</t>
-  </si>
-  <si>
-    <t>0.157181571816</t>
-  </si>
-  <si>
-    <t>2.90785907859</t>
-  </si>
-  <si>
-    <t>2.67208672087</t>
-  </si>
-  <si>
-    <t>2.51490514905</t>
-  </si>
-  <si>
-    <t>2.59349593496</t>
-  </si>
-  <si>
-    <t>2.20054200542</t>
-  </si>
-  <si>
-    <t>2.12195121951</t>
-  </si>
-  <si>
-    <t>1.9647696477</t>
-  </si>
-  <si>
-    <t>2.75067750678</t>
-  </si>
-  <si>
-    <t>3.61517615176</t>
-  </si>
-  <si>
-    <t>3.85094850949</t>
-  </si>
-  <si>
-    <t>4.08672086721</t>
-  </si>
-  <si>
-    <t>4.40108401084</t>
-  </si>
-  <si>
-    <t>4.9512195122</t>
-  </si>
-  <si>
-    <t>5.18699186992</t>
-  </si>
-  <si>
-    <t>5.50135501355</t>
-  </si>
-  <si>
-    <t>6.44444444444</t>
-  </si>
-  <si>
-    <t>6.9945799458</t>
-  </si>
-  <si>
-    <t>7.30894308943</t>
-  </si>
-  <si>
-    <t>10.216802168</t>
-  </si>
-  <si>
-    <t>10.8455284553</t>
-  </si>
-  <si>
-    <t>11.7886178862</t>
-  </si>
-  <si>
-    <t>10.6883468835</t>
-  </si>
-  <si>
-    <t>11.3170731707</t>
-  </si>
-  <si>
-    <t>11.8672086721</t>
-  </si>
-  <si>
-    <t>10.2953929539</t>
-  </si>
-  <si>
-    <t>10.4525745257</t>
-  </si>
-  <si>
-    <t>9.9810298103</t>
-  </si>
-  <si>
-    <t>9.74525745257</t>
-  </si>
-  <si>
-    <t>10.0596205962</t>
-  </si>
-  <si>
-    <t>10.6097560976</t>
-  </si>
-  <si>
-    <t>11.0027100271</t>
-  </si>
-  <si>
-    <t>10.9241192412</t>
-  </si>
-  <si>
-    <t>8.17344173442</t>
-  </si>
-  <si>
-    <t>10.7669376694</t>
-  </si>
-  <si>
-    <t>7.68704336043</t>
+    <t>0.17289972899729</t>
+  </si>
+  <si>
+    <t>0.361517615176152</t>
+  </si>
+  <si>
+    <t>0.385094850948509</t>
+  </si>
+  <si>
+    <t>0.550135501355014</t>
+  </si>
+  <si>
+    <t>0.581571815718157</t>
+  </si>
+  <si>
+    <t>0.502981029810298</t>
+  </si>
+  <si>
+    <t>0.34579945799458</t>
+  </si>
+  <si>
+    <t>0.251490514905149</t>
+  </si>
+  <si>
+    <t>0.392953929539295</t>
+  </si>
+  <si>
+    <t>0.880216802168022</t>
+  </si>
+  <si>
+    <t>0.471544715447154</t>
+  </si>
+  <si>
+    <t>0.125745257452575</t>
+  </si>
+  <si>
+    <t>0.188617886178862</t>
+  </si>
+  <si>
+    <t>0.314363143631436</t>
+  </si>
+  <si>
+    <t>0.408672086720867</t>
+  </si>
+  <si>
+    <t>0.534417344173442</t>
+  </si>
+  <si>
+    <t>0.636585365853658</t>
+  </si>
+  <si>
+    <t>0.573712737127371</t>
+  </si>
+  <si>
+    <t>0.762330623306233</t>
+  </si>
+  <si>
+    <t>1.01382113821138</t>
+  </si>
+  <si>
+    <t>1.18672086720867</t>
+  </si>
+  <si>
+    <t>1.62682926829268</t>
+  </si>
+  <si>
+    <t>1.92547425474255</t>
+  </si>
+  <si>
+    <t>1.88617886178862</t>
+  </si>
+  <si>
+    <t>2.35772357723577</t>
+  </si>
+  <si>
+    <t>3.14363143631436</t>
+  </si>
+  <si>
+    <t>3.4579945799458</t>
+  </si>
+  <si>
+    <t>3.0650406504065</t>
+  </si>
+  <si>
+    <t>3.30081300813008</t>
+  </si>
+  <si>
+    <t>3.46585365853659</t>
+  </si>
+  <si>
+    <t>0.628726287262873</t>
+  </si>
+  <si>
+    <t>0.157181571815718</t>
+  </si>
+  <si>
+    <t>2.90785907859079</t>
+  </si>
+  <si>
+    <t>2.67208672086721</t>
+  </si>
+  <si>
+    <t>2.51490514905149</t>
+  </si>
+  <si>
+    <t>2.59349593495935</t>
+  </si>
+  <si>
+    <t>2.20054200542005</t>
+  </si>
+  <si>
+    <t>2.1219512195122</t>
+  </si>
+  <si>
+    <t>1.96476964769648</t>
+  </si>
+  <si>
+    <t>2.75067750677507</t>
+  </si>
+  <si>
+    <t>3.61517615176152</t>
+  </si>
+  <si>
+    <t>3.85094850948509</t>
+  </si>
+  <si>
+    <t>4.08672086720867</t>
+  </si>
+  <si>
+    <t>4.40108401084011</t>
+  </si>
+  <si>
+    <t>4.95121951219512</t>
+  </si>
+  <si>
+    <t>5.1869918699187</t>
+  </si>
+  <si>
+    <t>5.50135501355014</t>
+  </si>
+  <si>
+    <t>6.44444444444444</t>
+  </si>
+  <si>
+    <t>6.99457994579946</t>
+  </si>
+  <si>
+    <t>7.30894308943089</t>
+  </si>
+  <si>
+    <t>10.2168021680217</t>
+  </si>
+  <si>
+    <t>10.8455284552846</t>
+  </si>
+  <si>
+    <t>11.7886178861789</t>
+  </si>
+  <si>
+    <t>10.6883468834688</t>
+  </si>
+  <si>
+    <t>11.3170731707317</t>
+  </si>
+  <si>
+    <t>11.8672086720867</t>
+  </si>
+  <si>
+    <t>10.2953929539295</t>
+  </si>
+  <si>
+    <t>10.4525745257453</t>
+  </si>
+  <si>
+    <t>9.9810298102981</t>
+  </si>
+  <si>
+    <t>9.74525745257453</t>
+  </si>
+  <si>
+    <t>10.059620596206</t>
+  </si>
+  <si>
+    <t>10.609756097561</t>
+  </si>
+  <si>
+    <t>11.0027100271003</t>
+  </si>
+  <si>
+    <t>10.9241192411924</t>
+  </si>
+  <si>
+    <t>8.17344173441734</t>
+  </si>
+  <si>
+    <t>10.7669376693767</t>
+  </si>
+  <si>
+    <t>7.6870433604336</t>
   </si>
   <si>
     <t>5.8</t>
